--- a/biology/Botanique/Potamogeton_acutifolius/Potamogeton_acutifolius.xlsx
+++ b/biology/Botanique/Potamogeton_acutifolius/Potamogeton_acutifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamogeton acutifolius, de noms communs Potamot à feuilles aiguës ou Potamot à feuilles pointues, est une plante vivace aquatique du genre Potamot, de la famille des Potamogetonaceae. 
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante glabre, très rameuse, à tiges comprimées-ailées, presque foliacées ; les feuilles sont allongées, linéaires, insensiblement atténuées en pointe fine, larges de 2-3 mm, à nombreuses nervures fines dont la médiane large et blanchâtre, sessiles, toutes submergées[1].
-Appareil reproducteur
-Les pédoncules sont droits, à peine aussi longs que l'épi subglobuleux formé de 4 à 6 fleurs ; les carpelles sont de 2 à 5, écartés, assez gros (3 sur 2 mm), un peu comprimés en rein, à dos convexe et ondulé-crénelé, à bord interne presque droit, muni d'une dent vers la base, terminé en bec long et latéral crochu.
-La floraison a lieu de juin à septembre[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante glabre, très rameuse, à tiges comprimées-ailées, presque foliacées ; les feuilles sont allongées, linéaires, insensiblement atténuées en pointe fine, larges de 2-3 mm, à nombreuses nervures fines dont la médiane large et blanchâtre, sessiles, toutes submergées.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le potamot à feuilles pointues est un habitant des étangs, ruisseaux et canaux[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pédoncules sont droits, à peine aussi longs que l'épi subglobuleux formé de 4 à 6 fleurs ; les carpelles sont de 2 à 5, écartés, assez gros (3 sur 2 mm), un peu comprimés en rein, à dos convexe et ondulé-crénelé, à bord interne presque droit, muni d'une dent vers la base, terminé en bec long et latéral crochu.
+La floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est originaire d'Europe centrale et boréale, ainsi que du Caucase[3].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le potamot à feuilles pointues est un habitant des étangs, ruisseaux et canaux.
 </t>
         </is>
       </c>
@@ -605,12 +628,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est originaire d'Europe centrale et boréale, ainsi que du Caucase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Potamogeton_acutifolius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potamogeton_acutifolius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Potamogeton cuspidatus Mert. &amp; W.D.J.Koch, 1823[4]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Potamogeton cuspidatus Mert. &amp; W.D.J.Koch, 1823</t>
         </is>
       </c>
     </row>
